--- a/Product Backlog v1.xlsx
+++ b/Product Backlog v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23416"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23420"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Crazzilla\Documents\Main\academic\semester 3\Teamworking\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{BC918A1E-458C-46A6-86F6-8E6491E6A325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1EB0904D-2633-49DB-A192-7A3FAF2B35AB}"/>
+  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{BC918A1E-458C-46A6-86F6-8E6491E6A325}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E9E12371-7521-4B36-B306-64EF6336298A}"/>
   <bookViews>
     <workbookView xWindow="345" yWindow="2010" windowWidth="13080" windowHeight="11385" xr2:uid="{215E222D-03E0-44A7-882A-D5EB5F2376C8}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="34">
   <si>
     <t>Product Backlog v1</t>
   </si>
@@ -63,15 +63,27 @@
     <t>To do</t>
   </si>
   <si>
+    <t>Priority Key:</t>
+  </si>
+  <si>
     <t>find Recipe APIs and assess compatability</t>
   </si>
   <si>
+    <t>Must Have</t>
+  </si>
+  <si>
     <t>Find Barcode scanners and assess compatability</t>
   </si>
   <si>
+    <t>Could Have</t>
+  </si>
+  <si>
     <t>Test compatability between scanned items and finding recipes</t>
   </si>
   <si>
+    <t>Won't Have</t>
+  </si>
+  <si>
     <t>Design database layouts (User storage/ User inventory)</t>
   </si>
   <si>
@@ -81,9 +93,6 @@
     <t>Find methods of reading or entering "use by dates"</t>
   </si>
   <si>
-    <t>this should be green?</t>
-  </si>
-  <si>
     <t>Similar product investigation (Features/ layouts)</t>
   </si>
   <si>
@@ -114,16 +123,16 @@
     <t>Implement Recipe API view and search</t>
   </si>
   <si>
-    <t>Add inventory control (removing items used in a certain recipe)</t>
-  </si>
-  <si>
-    <t>Implement methods for the user to input the "use by date" of items</t>
-  </si>
-  <si>
     <t>Implement recipe searching from ingredients</t>
   </si>
   <si>
-    <t>Add game-ificiation elements and achievements</t>
+    <t>Implement methods for the user to input the expiry dates of items</t>
+  </si>
+  <si>
+    <t>Deduct items used in recipe from inventory</t>
+  </si>
+  <si>
+    <t>Add game-ificiation elements like challenges and achievements</t>
   </si>
   <si>
     <t xml:space="preserve">                                                                         </t>
@@ -133,7 +142,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,8 +173,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFFFF00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,18 +202,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC00000"/>
+        <fgColor rgb="FF70AD47"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -205,20 +227,111 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -533,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C202B8-F36B-43CA-813E-6A91C59D6513}">
-  <dimension ref="A1:E27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -544,14 +657,17 @@
     <col min="1" max="1" width="18.5703125" customWidth="1"/>
     <col min="2" max="2" width="62.7109375" customWidth="1"/>
     <col min="3" max="3" width="13.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="10.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -568,7 +684,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -582,13 +698,19 @@
       <c r="E4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" s="12"/>
+      <c r="I4" s="8"/>
+      <c r="J4" s="14"/>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>2</v>
@@ -597,13 +719,18 @@
       <c r="E5" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="H5" s="13"/>
+      <c r="I5" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="15"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6">
         <v>2</v>
@@ -612,13 +739,18 @@
       <c r="E6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="H6" s="13"/>
+      <c r="I6" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" s="15"/>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>2</v>
@@ -627,13 +759,18 @@
       <c r="E7" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="H7" s="13"/>
+      <c r="I7" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C8">
         <v>2</v>
@@ -642,13 +779,16 @@
       <c r="E8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C9">
         <v>3</v>
@@ -658,74 +798,72 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
-      <c r="D10" s="2" t="s">
-        <v>15</v>
-      </c>
+      <c r="D10" s="2"/>
       <c r="E10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="5" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5">
         <v>2</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="7"/>
       <c r="E11" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="5" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="6">
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5">
         <v>3</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="5" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="4" t="s">
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C13">
         <v>3</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="6"/>
       <c r="E13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C17">
         <v>4</v>
@@ -737,10 +875,10 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C18">
         <v>3</v>
@@ -752,10 +890,10 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C19">
         <v>4</v>
@@ -767,10 +905,10 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C20">
         <v>4</v>
@@ -782,10 +920,10 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>3</v>
@@ -797,10 +935,10 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>2</v>
@@ -810,12 +948,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="17.25" customHeight="1">
+    <row r="23" spans="1:5">
       <c r="A23" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C23">
         <v>3</v>
@@ -827,10 +965,10 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C24">
         <v>4</v>
@@ -840,12 +978,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" ht="17.25" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="C25">
         <v>3</v>
@@ -857,22 +995,28 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C26">
         <v>5</v>
       </c>
-      <c r="D26" s="4"/>
+      <c r="D26" s="19"/>
       <c r="E26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="B27" t="s">
-        <v>30</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="C28">
+        <f>SUM(C4:C26)</f>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1028,6 +1172,12 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -1036,20 +1186,14 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB287C28-7A11-41A2-B474-FFE418C17097}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EBC2B9-ADD8-4324-BFC5-21B10A2BE7E0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51B1F18-DB0F-4E14-99FC-F1219D619557}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A51B1F18-DB0F-4E14-99FC-F1219D619557}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{45EBC2B9-ADD8-4324-BFC5-21B10A2BE7E0}"/>
 </file>